--- a/documents/LANCASHIRE ANALYSIS0001_FOI APPLICATION RESPONSE LETTER- OUR REF 1370-20 (1).xlsx
+++ b/documents/LANCASHIRE ANALYSIS0001_FOI APPLICATION RESPONSE LETTER- OUR REF 1370-20 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barnie/Documents/DRUGS STORY &amp; ASSIGNMENT/DRUGS FOI FOR GITHUB/EXCEL SHEETS &amp; FOI RESPONSES/LANCASHIRE DRUGS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0106855-B169-3948-AA2D-AC2644A76137}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66872E05-D70F-D64A-AF48-394619C34295}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="25" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="124">
   <si>
     <r>
       <rPr>
@@ -1662,6 +1662,15 @@
   </si>
   <si>
     <t>Year-on-year percentage change</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1681,7 @@
     <numFmt numFmtId="164" formatCode="###0;###0"/>
     <numFmt numFmtId="165" formatCode="#,##0;#,##0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1765,6 +1774,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1899,7 +1914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1958,6 +1973,136 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1976,136 +2121,9 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3210,7 +3228,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8145C4B1-C8A2-3148-B655-738A810203CD}" name="PivotTable27" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8145C4B1-C8A2-3148-B655-738A810203CD}" name="PivotTable27" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3647,10 +3665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A343F328-878C-914D-BC8B-B39B73D3191F}">
-  <dimension ref="A3:K34"/>
+  <dimension ref="A3:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3837,135 +3855,135 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20">
         <v>2018</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="20">
         <v>2019</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="68">
+      <c r="B21" s="20">
         <f>(B8+B17)</f>
         <v>614</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="20">
         <f>(C8+C17)</f>
         <v>723</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="20">
         <f>(723-614)/614</f>
         <v>0.17752442996742671</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="20">
         <v>17.8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="20">
         <f>(B5+B11+B14)</f>
         <v>151</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="20">
         <f>(C5+C9+C11+C14)</f>
         <v>158</v>
       </c>
-      <c r="D22" s="68">
+      <c r="D22" s="20">
         <f>(158-151)/151</f>
         <v>4.6357615894039736E-2</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="20">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="68">
+      <c r="B23" s="20">
         <f>(B6+B10)</f>
         <v>15</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="20">
         <f>(C4+C6)</f>
         <v>20</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="20">
         <f>(20-15)/15</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="20">
         <v>33.299999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20">
         <f>SUM(B21:B23)</f>
         <v>780</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="20">
         <f>SUM(C21:C23)</f>
         <v>901</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="20">
         <f>(614/780)*100</f>
         <v>78.717948717948715</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="20">
         <f>(723/901)*100</f>
         <v>80.244173140954501</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="20">
         <v>91</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="20">
         <f>(151/780)*100</f>
         <v>19.358974358974361</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="20">
         <f>(158/901)*100</f>
         <v>17.536071032186459</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="20">
         <v>7</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="20"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19" t="s">
         <v>112</v>
@@ -3978,21 +3996,21 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="68">
+      <c r="B28" s="20">
         <f>(15/780)*100</f>
         <v>1.9230769230769231</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="20">
         <f>(20/901)*100</f>
         <v>2.2197558268590454</v>
       </c>
-      <c r="D28" s="68">
+      <c r="D28" s="20">
         <v>0</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="20"/>
       <c r="H28" s="19">
         <v>2018</v>
       </c>
@@ -4007,11 +4025,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
       <c r="H29" s="19">
         <v>2019</v>
       </c>
@@ -4026,55 +4044,82 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="68"/>
-      <c r="B31" s="69" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="68"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="68"/>
-      <c r="B32" s="69" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="69">
+      <c r="C32" s="21">
         <v>5</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="68"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="68"/>
-      <c r="B33" s="69" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="69">
+      <c r="C33" s="21">
         <v>18</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="68"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="68"/>
-      <c r="B34" s="69" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="69">
+      <c r="C34" s="21">
         <v>33</v>
       </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="68"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H35" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35">
+        <f>(723-614)/614*100</f>
+        <v>17.752442996742669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H36" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36">
+        <f>(158-151)/151*100</f>
+        <v>4.6357615894039732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H37" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37">
+        <f>(20-15)/15*100</f>
+        <v>33.333333333333329</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4321,45 +4366,45 @@
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
     </row>
     <row r="44" spans="1:5" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>2018</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="67">
         <v>1005</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="69"/>
     </row>
     <row r="45" spans="1:5" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>2019</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="67">
         <v>1141</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="69"/>
     </row>
     <row r="46" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <v>319</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
@@ -4375,148 +4420,148 @@
       <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B49" s="61">
         <v>2018</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="29">
+      <c r="C49" s="63"/>
+      <c r="D49" s="61">
         <v>2019</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="32" t="s">
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="34"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="51"/>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>75</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="26">
+      <c r="C50" s="27"/>
+      <c r="D50" s="25">
         <v>99</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="26">
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="25">
         <v>29</v>
       </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="28"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="27"/>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="25">
         <v>524</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="26">
+      <c r="C51" s="27"/>
+      <c r="D51" s="25">
         <v>617</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="26">
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="25">
         <v>172</v>
       </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="28"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="27"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>351</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="26">
+      <c r="C52" s="27"/>
+      <c r="D52" s="25">
         <v>370</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="26">
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="25">
         <v>101</v>
       </c>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="28"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="27"/>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <v>54</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="26">
+      <c r="C53" s="27"/>
+      <c r="D53" s="25">
         <v>53</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="26">
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="25">
         <v>17</v>
       </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="28"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="27"/>
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <v>1</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="26">
+      <c r="C54" s="27"/>
+      <c r="D54" s="25">
         <v>2</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="26">
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="25">
         <v>0</v>
       </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="28"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="27"/>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="35">
+      <c r="B55" s="43">
         <v>1005</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="35">
+      <c r="C55" s="45"/>
+      <c r="D55" s="43">
         <v>1141</v>
       </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="38">
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="31">
         <v>319</v>
       </c>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="40"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
     </row>
     <row r="56" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
@@ -4535,18 +4580,18 @@
       <c r="B58" s="9">
         <v>2018</v>
       </c>
-      <c r="C58" s="29">
+      <c r="C58" s="61">
         <v>2019</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="32" t="s">
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="34"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="51"/>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
@@ -4555,18 +4600,18 @@
       <c r="B59" s="5">
         <v>103</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59" s="40">
         <v>133</v>
       </c>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="26">
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="25">
         <v>30</v>
       </c>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="28"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="27"/>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="13" t="s">
@@ -4575,34 +4620,34 @@
       <c r="B60" s="5">
         <v>899</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="40">
         <v>1001</v>
       </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="26">
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="25">
         <v>289</v>
       </c>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="28"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="6"/>
-      <c r="C61" s="26">
+      <c r="C61" s="25">
         <v>1</v>
       </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="46"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="54"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
@@ -4611,16 +4656,16 @@
       <c r="B62" s="5">
         <v>1</v>
       </c>
-      <c r="C62" s="26">
+      <c r="C62" s="25">
         <v>1</v>
       </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="46"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
     </row>
     <row r="63" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="14" t="s">
@@ -4629,16 +4674,16 @@
       <c r="B63" s="15">
         <v>2</v>
       </c>
-      <c r="C63" s="47">
+      <c r="C63" s="55">
         <v>5</v>
       </c>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="52"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="60"/>
     </row>
     <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="s">
@@ -4647,18 +4692,18 @@
       <c r="B64" s="12">
         <v>1005</v>
       </c>
-      <c r="C64" s="35">
+      <c r="C64" s="43">
         <v>1141</v>
       </c>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="38">
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="31">
         <v>319</v>
       </c>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="33"/>
     </row>
     <row r="65" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
@@ -4681,545 +4726,545 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="35">
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="43">
         <v>2018</v>
       </c>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="36"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="45"/>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="41">
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="40">
         <v>582</v>
       </c>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="43"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="42"/>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="41">
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="40">
         <v>107</v>
       </c>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="43"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="42"/>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="56" t="s">
+      <c r="A72" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="26">
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="25">
         <v>32</v>
       </c>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="28"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="27"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="26">
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="25">
         <v>29</v>
       </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="56" t="s">
+      <c r="A74" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="26">
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25">
         <v>15</v>
       </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="27"/>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="26">
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25">
         <v>9</v>
       </c>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="27"/>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="26">
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="25">
         <v>9</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="27"/>
     </row>
     <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="56" t="s">
+      <c r="A77" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="26">
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="25">
         <v>6</v>
       </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="26">
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25">
         <v>6</v>
       </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="26">
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="25">
         <v>17</v>
       </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="27"/>
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="56" t="s">
+      <c r="A80" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="26">
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25">
         <v>63</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="27"/>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="41">
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="40">
         <v>130</v>
       </c>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="43"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="42"/>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B82" s="54"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="35">
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="43">
         <v>1005</v>
       </c>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="36"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="45"/>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="54"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="35">
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="43">
         <v>2019</v>
       </c>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="36"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="45"/>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="41">
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="40">
         <v>667</v>
       </c>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="43"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="56" t="s">
+      <c r="A85" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="41">
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="40">
         <v>112</v>
       </c>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="43"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="42"/>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="56" t="s">
+      <c r="A86" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="26">
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="25">
         <v>56</v>
       </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="28"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="26">
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25">
         <v>32</v>
       </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="28"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27"/>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="56" t="s">
+      <c r="A88" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="26">
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25">
         <v>8</v>
       </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="28"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="27"/>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="26">
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="25">
         <v>13</v>
       </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="28"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="27"/>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="56" t="s">
+      <c r="A90" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B90" s="57"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="26">
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="25">
         <v>13</v>
       </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="28"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="27"/>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B91" s="57"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="26">
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25">
         <v>6</v>
       </c>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="28"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="27"/>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="56" t="s">
+      <c r="A92" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="57"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="26">
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="25">
         <v>5</v>
       </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="28"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
     </row>
     <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="56" t="s">
+      <c r="A93" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="26">
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="25">
         <v>7</v>
       </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="28"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27"/>
     </row>
     <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="56" t="s">
+      <c r="A94" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="57"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="26">
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25">
         <v>9</v>
       </c>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="28"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
     </row>
     <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="56" t="s">
+      <c r="A95" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B95" s="57"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="41">
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="40">
         <v>101</v>
       </c>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="43"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="42"/>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="56" t="s">
+      <c r="A96" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="57"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="41">
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="40">
         <v>112</v>
       </c>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="43"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="42"/>
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="53" t="s">
+      <c r="A97" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="54"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="35">
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="43">
         <v>1141</v>
       </c>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="36"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="45"/>
     </row>
     <row r="98" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="59" t="s">
+      <c r="A98" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B98" s="60"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="32" t="s">
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="34"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="51"/>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="56" t="s">
+      <c r="A99" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B99" s="57"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="26">
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="25">
         <v>221</v>
       </c>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="28"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="27"/>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="56" t="s">
+      <c r="A100" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="26">
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="25">
         <v>18</v>
       </c>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="28"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="27"/>
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="62" t="s">
+      <c r="A101" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B101" s="63"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="65">
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="37">
         <v>5</v>
       </c>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="67"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="39"/>
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="56" t="s">
+      <c r="A102" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="58"/>
-      <c r="E102" s="26">
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="25">
         <v>8</v>
       </c>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="28"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="27"/>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="56" t="s">
+      <c r="A103" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B103" s="57"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="26">
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25">
         <v>15</v>
       </c>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="28"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="27"/>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="56" t="s">
+      <c r="A104" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="26">
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="25">
         <v>29</v>
       </c>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="28"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="27"/>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="56" t="s">
+      <c r="A105" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="26">
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="25">
         <v>23</v>
       </c>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="28"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="27"/>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="53" t="s">
+      <c r="A106" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="54"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="38">
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="31">
         <v>319</v>
       </c>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="40"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="33"/>
     </row>
     <row r="107" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
@@ -5273,6 +5318,105 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="E98:I98"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="E104:I104"/>
     <mergeCell ref="A105:D105"/>
@@ -5289,105 +5433,6 @@
     <mergeCell ref="E102:I102"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="E103:I103"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="E98:I98"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
